--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cort-Sstr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cort-Sstr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,25 +79,25 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Cort</t>
+  </si>
+  <si>
+    <t>Sstr4</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
-    <t>Cort</t>
-  </si>
-  <si>
-    <t>Sstr4</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -549,10 +549,10 @@
         <v>1.444561</v>
       </c>
       <c r="I2">
-        <v>0.9529357361208413</v>
+        <v>0.7789994499509271</v>
       </c>
       <c r="J2">
-        <v>0.9529357361208413</v>
+        <v>0.7789994499509271</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.286763666666666</v>
+        <v>2.935047</v>
       </c>
       <c r="N2">
-        <v>12.860291</v>
+        <v>8.805140999999999</v>
       </c>
       <c r="O2">
-        <v>0.6462291522951772</v>
+        <v>0.5929059285131875</v>
       </c>
       <c r="P2">
-        <v>0.6462291522951772</v>
+        <v>0.5929059285131874</v>
       </c>
       <c r="Q2">
-        <v>2.064163869694556</v>
+        <v>1.413284809789</v>
       </c>
       <c r="R2">
-        <v>18.577474827251</v>
+        <v>12.719563288101</v>
       </c>
       <c r="S2">
-        <v>0.6158148529451519</v>
+        <v>0.4618733921844167</v>
       </c>
       <c r="T2">
-        <v>0.6158148529451519</v>
+        <v>0.4618733921844166</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -611,10 +611,10 @@
         <v>1.444561</v>
       </c>
       <c r="I3">
-        <v>0.9529357361208413</v>
+        <v>0.7789994499509271</v>
       </c>
       <c r="J3">
-        <v>0.9529357361208413</v>
+        <v>0.7789994499509271</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,10 +629,10 @@
         <v>1.345434</v>
       </c>
       <c r="O3">
-        <v>0.06760800928136924</v>
+        <v>0.09059659521899899</v>
       </c>
       <c r="P3">
-        <v>0.06760800928136924</v>
+        <v>0.09059659521899897</v>
       </c>
       <c r="Q3">
         <v>0.2159512760526667</v>
@@ -641,10 +641,10 @@
         <v>1.943561484474</v>
       </c>
       <c r="S3">
-        <v>0.06442608809220626</v>
+        <v>0.070574697843027</v>
       </c>
       <c r="T3">
-        <v>0.06442608809220626</v>
+        <v>0.07057469784302699</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -673,10 +673,10 @@
         <v>1.444561</v>
       </c>
       <c r="I4">
-        <v>0.9529357361208413</v>
+        <v>0.7789994499509271</v>
       </c>
       <c r="J4">
-        <v>0.9529357361208413</v>
+        <v>0.7789994499509271</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.537654</v>
+        <v>0.5792206666666667</v>
       </c>
       <c r="N4">
-        <v>1.612962</v>
+        <v>1.737662</v>
       </c>
       <c r="O4">
-        <v>0.08105128149466707</v>
+        <v>0.1170077914200446</v>
       </c>
       <c r="P4">
-        <v>0.08105128149466706</v>
+        <v>0.1170077914200445</v>
       </c>
       <c r="Q4">
-        <v>0.258891333298</v>
+        <v>0.278906528486889</v>
       </c>
       <c r="R4">
-        <v>2.330021999682</v>
+        <v>2.510158756382</v>
       </c>
       <c r="S4">
-        <v>0.07723666259465808</v>
+        <v>0.09114900515618751</v>
       </c>
       <c r="T4">
-        <v>0.07723666259465807</v>
+        <v>0.0911490051561875</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -735,10 +735,10 @@
         <v>1.444561</v>
       </c>
       <c r="I5">
-        <v>0.9529357361208413</v>
+        <v>0.7789994499509271</v>
       </c>
       <c r="J5">
-        <v>0.9529357361208413</v>
+        <v>0.7789994499509271</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3494453333333334</v>
+        <v>0.08668166666666666</v>
       </c>
       <c r="N5">
-        <v>1.048336</v>
+        <v>0.260045</v>
       </c>
       <c r="O5">
-        <v>0.05267884564980038</v>
+        <v>0.01751047736546318</v>
       </c>
       <c r="P5">
-        <v>0.05267884564980038</v>
+        <v>0.01751047736546318</v>
       </c>
       <c r="Q5">
-        <v>0.1682650333884445</v>
+        <v>0.04173898502722222</v>
       </c>
       <c r="R5">
-        <v>1.514385300496</v>
+        <v>0.375650865245</v>
       </c>
       <c r="S5">
-        <v>0.0501995545572887</v>
+        <v>0.01364065223607398</v>
       </c>
       <c r="T5">
-        <v>0.05019955455728869</v>
+        <v>0.01364065223607397</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -797,10 +797,10 @@
         <v>1.444561</v>
       </c>
       <c r="I6">
-        <v>0.9529357361208413</v>
+        <v>0.7789994499509271</v>
       </c>
       <c r="J6">
-        <v>0.9529357361208413</v>
+        <v>0.7789994499509271</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8433310000000001</v>
+        <v>0.6319776666666667</v>
       </c>
       <c r="N6">
-        <v>2.529993</v>
+        <v>1.895933</v>
       </c>
       <c r="O6">
-        <v>0.1271320556978635</v>
+        <v>0.1276651805761876</v>
       </c>
       <c r="P6">
-        <v>0.1271320556978635</v>
+        <v>0.1276651805761876</v>
       </c>
       <c r="Q6">
-        <v>0.4060810242303334</v>
+        <v>0.3043100967125556</v>
       </c>
       <c r="R6">
-        <v>3.654729218073001</v>
+        <v>2.738790870413</v>
       </c>
       <c r="S6">
-        <v>0.1211486790809993</v>
+        <v>0.09945110544673592</v>
       </c>
       <c r="T6">
-        <v>0.1211486790809993</v>
+        <v>0.09945110544673591</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -859,40 +859,40 @@
         <v>1.444561</v>
       </c>
       <c r="I7">
-        <v>0.9529357361208413</v>
+        <v>0.7789994499509271</v>
       </c>
       <c r="J7">
-        <v>0.9529357361208413</v>
+        <v>0.7789994499509271</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.167832</v>
+        <v>0.2688693333333333</v>
       </c>
       <c r="N7">
-        <v>0.5034959999999999</v>
+        <v>0.806608</v>
       </c>
       <c r="O7">
-        <v>0.02530065558112274</v>
+        <v>0.05431402690611828</v>
       </c>
       <c r="P7">
-        <v>0.02530065558112274</v>
+        <v>0.05431402690611827</v>
       </c>
       <c r="Q7">
-        <v>0.080814520584</v>
+        <v>0.1294660510097778</v>
       </c>
       <c r="R7">
-        <v>0.727330685256</v>
+        <v>1.165194459088</v>
       </c>
       <c r="S7">
-        <v>0.02410989885053707</v>
+        <v>0.04231059708448599</v>
       </c>
       <c r="T7">
-        <v>0.02410989885053707</v>
+        <v>0.04231059708448598</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -915,16 +915,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.02378166666666667</v>
+        <v>0.054895</v>
       </c>
       <c r="H8">
-        <v>0.07134500000000001</v>
+        <v>0.164685</v>
       </c>
       <c r="I8">
-        <v>0.04706426387915874</v>
+        <v>0.08880865841952565</v>
       </c>
       <c r="J8">
-        <v>0.04706426387915873</v>
+        <v>0.08880865841952565</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.286763666666666</v>
+        <v>2.935047</v>
       </c>
       <c r="N8">
-        <v>12.860291</v>
+        <v>8.805140999999999</v>
       </c>
       <c r="O8">
-        <v>0.6462291522951772</v>
+        <v>0.5929059285131875</v>
       </c>
       <c r="P8">
-        <v>0.6462291522951772</v>
+        <v>0.5929059285131874</v>
       </c>
       <c r="Q8">
-        <v>0.1019463845994445</v>
+        <v>0.161119405065</v>
       </c>
       <c r="R8">
-        <v>0.9175174613950001</v>
+        <v>1.450074645585</v>
       </c>
       <c r="S8">
-        <v>0.03041429935002528</v>
+        <v>0.05265518008023936</v>
       </c>
       <c r="T8">
-        <v>0.03041429935002527</v>
+        <v>0.05265518008023935</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -977,16 +977,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.02378166666666667</v>
+        <v>0.054895</v>
       </c>
       <c r="H9">
-        <v>0.07134500000000001</v>
+        <v>0.164685</v>
       </c>
       <c r="I9">
-        <v>0.04706426387915874</v>
+        <v>0.08880865841952565</v>
       </c>
       <c r="J9">
-        <v>0.04706426387915873</v>
+        <v>0.08880865841952565</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>1.345434</v>
       </c>
       <c r="O9">
-        <v>0.06760800928136924</v>
+        <v>0.09059659521899899</v>
       </c>
       <c r="P9">
-        <v>0.06760800928136924</v>
+        <v>0.09059659521899897</v>
       </c>
       <c r="Q9">
-        <v>0.01066555430333333</v>
+        <v>0.02461919981</v>
       </c>
       <c r="R9">
-        <v>0.09598998873</v>
+        <v>0.22157279829</v>
       </c>
       <c r="S9">
-        <v>0.003181921189162976</v>
+        <v>0.008045762078776112</v>
       </c>
       <c r="T9">
-        <v>0.003181921189162975</v>
+        <v>0.00804576207877611</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1039,16 +1039,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.02378166666666667</v>
+        <v>0.054895</v>
       </c>
       <c r="H10">
-        <v>0.07134500000000001</v>
+        <v>0.164685</v>
       </c>
       <c r="I10">
-        <v>0.04706426387915874</v>
+        <v>0.08880865841952565</v>
       </c>
       <c r="J10">
-        <v>0.04706426387915873</v>
+        <v>0.08880865841952565</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.537654</v>
+        <v>0.5792206666666667</v>
       </c>
       <c r="N10">
-        <v>1.612962</v>
+        <v>1.737662</v>
       </c>
       <c r="O10">
-        <v>0.08105128149466707</v>
+        <v>0.1170077914200446</v>
       </c>
       <c r="P10">
-        <v>0.08105128149466706</v>
+        <v>0.1170077914200445</v>
       </c>
       <c r="Q10">
-        <v>0.01278630821</v>
+        <v>0.03179631849666667</v>
       </c>
       <c r="R10">
-        <v>0.11507677389</v>
+        <v>0.28616686647</v>
       </c>
       <c r="S10">
-        <v>0.003814618900008987</v>
+        <v>0.01039130498064584</v>
       </c>
       <c r="T10">
-        <v>0.003814618900008986</v>
+        <v>0.01039130498064584</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1101,16 +1101,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.02378166666666667</v>
+        <v>0.054895</v>
       </c>
       <c r="H11">
-        <v>0.07134500000000001</v>
+        <v>0.164685</v>
       </c>
       <c r="I11">
-        <v>0.04706426387915874</v>
+        <v>0.08880865841952565</v>
       </c>
       <c r="J11">
-        <v>0.04706426387915873</v>
+        <v>0.08880865841952565</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.3494453333333334</v>
+        <v>0.08668166666666666</v>
       </c>
       <c r="N11">
-        <v>1.048336</v>
+        <v>0.260045</v>
       </c>
       <c r="O11">
-        <v>0.05267884564980038</v>
+        <v>0.01751047736546318</v>
       </c>
       <c r="P11">
-        <v>0.05267884564980038</v>
+        <v>0.01751047736546318</v>
       </c>
       <c r="Q11">
-        <v>0.008310392435555558</v>
+        <v>0.004758390091666666</v>
       </c>
       <c r="R11">
-        <v>0.07479353192000002</v>
+        <v>0.042825510825</v>
       </c>
       <c r="S11">
-        <v>0.002479291092511679</v>
+        <v>0.001555082003112255</v>
       </c>
       <c r="T11">
-        <v>0.002479291092511678</v>
+        <v>0.001555082003112255</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1163,16 +1163,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.02378166666666667</v>
+        <v>0.054895</v>
       </c>
       <c r="H12">
-        <v>0.07134500000000001</v>
+        <v>0.164685</v>
       </c>
       <c r="I12">
-        <v>0.04706426387915874</v>
+        <v>0.08880865841952565</v>
       </c>
       <c r="J12">
-        <v>0.04706426387915873</v>
+        <v>0.08880865841952565</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8433310000000001</v>
+        <v>0.6319776666666667</v>
       </c>
       <c r="N12">
-        <v>2.529993</v>
+        <v>1.895933</v>
       </c>
       <c r="O12">
-        <v>0.1271320556978635</v>
+        <v>0.1276651805761876</v>
       </c>
       <c r="P12">
-        <v>0.1271320556978635</v>
+        <v>0.1276651805761876</v>
       </c>
       <c r="Q12">
-        <v>0.02005581673166667</v>
+        <v>0.03469241401166667</v>
       </c>
       <c r="R12">
-        <v>0.180502350585</v>
+        <v>0.312231726105</v>
       </c>
       <c r="S12">
-        <v>0.005983376616864154</v>
+        <v>0.01133777341385771</v>
       </c>
       <c r="T12">
-        <v>0.005983376616864151</v>
+        <v>0.0113377734138577</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1225,46 +1225,418 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.02378166666666667</v>
+        <v>0.054895</v>
       </c>
       <c r="H13">
-        <v>0.07134500000000001</v>
+        <v>0.164685</v>
       </c>
       <c r="I13">
-        <v>0.04706426387915874</v>
+        <v>0.08880865841952565</v>
       </c>
       <c r="J13">
-        <v>0.04706426387915873</v>
+        <v>0.08880865841952565</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.167832</v>
+        <v>0.2688693333333333</v>
       </c>
       <c r="N13">
-        <v>0.5034959999999999</v>
+        <v>0.806608</v>
       </c>
       <c r="O13">
-        <v>0.02530065558112274</v>
+        <v>0.05431402690611828</v>
       </c>
       <c r="P13">
-        <v>0.02530065558112274</v>
+        <v>0.05431402690611827</v>
       </c>
       <c r="Q13">
-        <v>0.00399132468</v>
+        <v>0.01475958205333333</v>
       </c>
       <c r="R13">
-        <v>0.03592192212</v>
+        <v>0.13283623848</v>
       </c>
       <c r="S13">
-        <v>0.001190756730585671</v>
+        <v>0.004823555862894384</v>
       </c>
       <c r="T13">
-        <v>0.001190756730585671</v>
+        <v>0.004823555862894383</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.08171133333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.245134</v>
+      </c>
+      <c r="I14">
+        <v>0.1321918916295473</v>
+      </c>
+      <c r="J14">
+        <v>0.1321918916295473</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.935047</v>
+      </c>
+      <c r="N14">
+        <v>8.805140999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.5929059285131875</v>
+      </c>
+      <c r="P14">
+        <v>0.5929059285131874</v>
+      </c>
+      <c r="Q14">
+        <v>0.239826603766</v>
+      </c>
+      <c r="R14">
+        <v>2.158439433894</v>
+      </c>
+      <c r="S14">
+        <v>0.07837735624853141</v>
+      </c>
+      <c r="T14">
+        <v>0.0783773562485314</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.08171133333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.245134</v>
+      </c>
+      <c r="I15">
+        <v>0.1321918916295473</v>
+      </c>
+      <c r="J15">
+        <v>0.1321918916295473</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.448478</v>
+      </c>
+      <c r="N15">
+        <v>1.345434</v>
+      </c>
+      <c r="O15">
+        <v>0.09059659521899899</v>
+      </c>
+      <c r="P15">
+        <v>0.09059659521899897</v>
+      </c>
+      <c r="Q15">
+        <v>0.03664573535066666</v>
+      </c>
+      <c r="R15">
+        <v>0.329811618156</v>
+      </c>
+      <c r="S15">
+        <v>0.01197613529719588</v>
+      </c>
+      <c r="T15">
+        <v>0.01197613529719588</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.08171133333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.245134</v>
+      </c>
+      <c r="I16">
+        <v>0.1321918916295473</v>
+      </c>
+      <c r="J16">
+        <v>0.1321918916295473</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.5792206666666667</v>
+      </c>
+      <c r="N16">
+        <v>1.737662</v>
+      </c>
+      <c r="O16">
+        <v>0.1170077914200446</v>
+      </c>
+      <c r="P16">
+        <v>0.1170077914200445</v>
+      </c>
+      <c r="Q16">
+        <v>0.04732889296755556</v>
+      </c>
+      <c r="R16">
+        <v>0.425960036708</v>
+      </c>
+      <c r="S16">
+        <v>0.01546748128321121</v>
+      </c>
+      <c r="T16">
+        <v>0.01546748128321121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.08171133333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.245134</v>
+      </c>
+      <c r="I17">
+        <v>0.1321918916295473</v>
+      </c>
+      <c r="J17">
+        <v>0.1321918916295473</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.08668166666666666</v>
+      </c>
+      <c r="N17">
+        <v>0.260045</v>
+      </c>
+      <c r="O17">
+        <v>0.01751047736546318</v>
+      </c>
+      <c r="P17">
+        <v>0.01751047736546318</v>
+      </c>
+      <c r="Q17">
+        <v>0.007082874558888888</v>
+      </c>
+      <c r="R17">
+        <v>0.06374587102999998</v>
+      </c>
+      <c r="S17">
+        <v>0.00231474312627695</v>
+      </c>
+      <c r="T17">
+        <v>0.00231474312627695</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.08171133333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.245134</v>
+      </c>
+      <c r="I18">
+        <v>0.1321918916295473</v>
+      </c>
+      <c r="J18">
+        <v>0.1321918916295473</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.6319776666666667</v>
+      </c>
+      <c r="N18">
+        <v>1.895933</v>
+      </c>
+      <c r="O18">
+        <v>0.1276651805761876</v>
+      </c>
+      <c r="P18">
+        <v>0.1276651805761876</v>
+      </c>
+      <c r="Q18">
+        <v>0.05163973778022222</v>
+      </c>
+      <c r="R18">
+        <v>0.4647576400219999</v>
+      </c>
+      <c r="S18">
+        <v>0.01687630171559398</v>
+      </c>
+      <c r="T18">
+        <v>0.01687630171559398</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.08171133333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.245134</v>
+      </c>
+      <c r="I19">
+        <v>0.1321918916295473</v>
+      </c>
+      <c r="J19">
+        <v>0.1321918916295473</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.2688693333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.806608</v>
+      </c>
+      <c r="O19">
+        <v>0.05431402690611828</v>
+      </c>
+      <c r="P19">
+        <v>0.05431402690611827</v>
+      </c>
+      <c r="Q19">
+        <v>0.02196967171911111</v>
+      </c>
+      <c r="R19">
+        <v>0.197727045472</v>
+      </c>
+      <c r="S19">
+        <v>0.007179873958737906</v>
+      </c>
+      <c r="T19">
+        <v>0.007179873958737904</v>
       </c>
     </row>
   </sheetData>
